--- a/public/Tipos de servicio.xlsx
+++ b/public/Tipos de servicio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/71492a44d3b51616/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Santiago\argon\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="14_{8CF99F9E-9387-4549-976A-44CE296779C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14A0876C-0141-442F-9EFD-73618E385928}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB694929-4C10-40E8-A043-50F5C8A4375B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BEB8C200-78E4-4A9D-9AC8-AA4BB1DFE386}"/>
+    <workbookView xWindow="-28920" yWindow="-2205" windowWidth="29040" windowHeight="15840" xr2:uid="{BEB8C200-78E4-4A9D-9AC8-AA4BB1DFE386}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <t>descripcion</t>
   </si>
   <si>
-    <t>form</t>
+    <t>disponible</t>
   </si>
 </sst>
 </file>
@@ -97,10 +97,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -403,7 +399,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,5 +418,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Calibri"&amp;12&amp;KFF8C00 CONFIDENTIAL &amp; RESTRICTED&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>